--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,106 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_9</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_10</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_12</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tabel_14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tabel.xlsx
+++ b/Tabel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,56 +545,6 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_11</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_12</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tabel_14</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
